--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -265,16 +265,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>186</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,16 +293,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>628</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>541</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>759</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,13 +439,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>393</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,13 +487,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>365</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,7 +669,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1129,7 +1129,7 @@
   <dimension ref="B1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>186</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1169,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1">
@@ -1177,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" thickBot="1"/>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>628</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" thickBot="1">
@@ -1218,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5">
-        <v>759</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" thickBot="1"/>
@@ -1243,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="3">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -1259,7 +1259,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="5">
-        <v>393</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" thickBot="1"/>
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="5">
-        <v>600</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.75" thickBot="1"/>
@@ -1358,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="3">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1">
